--- a/biology/Histoire de la zoologie et de la botanique/Willem_Roelofs/Willem_Roelofs.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Willem_Roelofs/Willem_Roelofs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Willem Roelofs, né le 10 mars 1822 à Amsterdam et mort le 12 mai 1897 (à 75 ans) à Berchem (Anvers), est un peintre, aquarelliste, aquafortiste et lithographe néerlandais.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Roelofs est l'un des précurseurs du renouvellement de la peinture néerlandaise, positionné entre le classicisme romantique du début du XIXe siècle et le courant nouveau dit de l'École de La Haye. Tout en poursuivant une formation de peintre à l'Académie des Beaux-Arts de La Haye, il est aussi l'élève de Hendrikus van de Sande Bakhuyzen.
 En 1847, il participe à la fondation de la société d'artistes Pulchri Studio. Dans la même année, il quitte brusquement La Haye et s'installe à Bruxelles, où il reste jusqu'en 1877. De 1866 et 1869, il y forme Hendrik Willem Mesdag, qui se développe comme l'un des principaux peintres de l'École de La Haye. Parmi ses autres élèves, on compte Paul Gabriël, Jan Theodoor Kruseman (en), Alexander Mollinger (en) et Frans Smissaert (nl). En 1856, il participe à la fondation de la Société royale belge des aquarellistes.
